--- a/src/main/resources/ru/avem/kspem/app/protocol.xlsx
+++ b/src/main/resources/ru/avem/kspem/app/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t xml:space="preserve">КАЛУЖСКИЙ ЭЛЕКТРОМЕХАНИЧЕСКИЙ ЗАВОД</t>
   </si>
@@ -250,40 +250,103 @@
     <t xml:space="preserve">#VOLTAGE_RESULT#</t>
   </si>
   <si>
-    <t xml:space="preserve">ДПР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ia, А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ib, А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ic, А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZUAB#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZUBC#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZUCA#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZIA#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZIB#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZIC#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZP1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#KZRESULT#</t>
+    <t xml:space="preserve">Определение характеристик ДПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SinP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CosP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SinN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CosN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U min, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMINSINP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMINCOSP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMINSINN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMINCOSN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U max, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMAXSINP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMAXCOSP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMAXSINN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UMAXCOSN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U amp, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UAMPSINP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UAMPCOSP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UAMPSINN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_UAMPCOSN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∠ AB, эл. гр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DPRSINP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DPRCOSP#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DPRSINN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DPRCOSN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разброс Umin, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разброс Umax, %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отклонение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частота ДПР, Гц/Об</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DEVIATIONMIN#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DEVIATIONMAX#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_DEVIATIONDPR#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DPR_RESULT#</t>
   </si>
   <si>
     <t xml:space="preserve">Рекомендации:</t>
@@ -305,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,10 +518,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -593,7 +665,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,6 +923,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1989,29 +2065,23 @@
       <c r="AMI47" s="33"/>
       <c r="AMJ47" s="33"/>
     </row>
-    <row r="48" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" s="32" customFormat="true" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="52"/>
-      <c r="B48" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="55" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="E48" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="F48" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="64" t="s">
-        <v>16</v>
-      </c>
+      <c r="G48" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" s="54"/>
       <c r="I48" s="54"/>
       <c r="J48" s="56"/>
       <c r="AMC48" s="33"/>
@@ -2023,12 +2093,10 @@
       <c r="AMI48" s="33"/>
       <c r="AMJ48" s="33"/>
     </row>
-    <row r="49" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" s="32" customFormat="true" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="52"/>
-      <c r="B49" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="55" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="64" t="s">
         <v>81</v>
       </c>
       <c r="D49" s="55" t="s">
@@ -2043,9 +2111,7 @@
       <c r="G49" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="64" t="s">
-        <v>86</v>
-      </c>
+      <c r="H49" s="54"/>
       <c r="I49" s="54"/>
       <c r="J49" s="56"/>
       <c r="M49" s="0"/>
@@ -2063,14 +2129,24 @@
       <c r="AMI49" s="33"/>
       <c r="AMJ49" s="33"/>
     </row>
-    <row r="50" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" s="32" customFormat="true" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="52"/>
       <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+      <c r="C50" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>90</v>
+      </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
       <c r="J50" s="56"/>
@@ -2089,21 +2165,33 @@
       <c r="AMI50" s="33"/>
       <c r="AMJ50" s="33"/>
     </row>
-    <row r="51" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" s="32" customFormat="true" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="52"/>
-      <c r="B51" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>93</v>
+      </c>
       <c r="F51" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="65"/>
+        <v>94</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="56"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="0"/>
       <c r="AMC51" s="33"/>
       <c r="AMD51" s="33"/>
       <c r="AME51" s="33"/>
@@ -2113,17 +2201,33 @@
       <c r="AMI51" s="33"/>
       <c r="AMJ51" s="33"/>
     </row>
-    <row r="52" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" s="32" customFormat="true" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="52"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="65"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="56"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
       <c r="AMC52" s="33"/>
       <c r="AMD52" s="33"/>
       <c r="AME52" s="33"/>
@@ -2134,16 +2238,22 @@
       <c r="AMJ52" s="33"/>
     </row>
     <row r="53" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="61"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="56"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
       <c r="AMC53" s="33"/>
       <c r="AMD53" s="33"/>
       <c r="AME53" s="33"/>
@@ -2153,112 +2263,262 @@
       <c r="AMI53" s="33"/>
       <c r="AMJ53" s="33"/>
     </row>
-    <row r="54" s="22" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-    </row>
-    <row r="55" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+    <row r="54" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="52"/>
+      <c r="B54" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="56"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="0"/>
+      <c r="AMC54" s="33"/>
+      <c r="AMD54" s="33"/>
+      <c r="AME54" s="33"/>
+      <c r="AMF54" s="33"/>
+      <c r="AMG54" s="33"/>
+      <c r="AMH54" s="33"/>
+      <c r="AMI54" s="33"/>
+      <c r="AMJ54" s="33"/>
+    </row>
+    <row r="55" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="52"/>
+      <c r="B55" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" s="56"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="AMC55" s="33"/>
+      <c r="AMD55" s="33"/>
+      <c r="AME55" s="33"/>
+      <c r="AMF55" s="33"/>
+      <c r="AMG55" s="33"/>
+      <c r="AMH55" s="33"/>
+      <c r="AMI55" s="33"/>
+      <c r="AMJ55" s="33"/>
+    </row>
+    <row r="56" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="52"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="56"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="AMC56" s="33"/>
+      <c r="AMD56" s="33"/>
+      <c r="AME56" s="33"/>
+      <c r="AMF56" s="33"/>
+      <c r="AMG56" s="33"/>
+      <c r="AMH56" s="33"/>
+      <c r="AMI56" s="33"/>
+      <c r="AMJ56" s="33"/>
+    </row>
+    <row r="57" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="52"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="66"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
+      <c r="AMC57" s="33"/>
+      <c r="AMD57" s="33"/>
+      <c r="AME57" s="33"/>
+      <c r="AMF57" s="33"/>
+      <c r="AMG57" s="33"/>
+      <c r="AMH57" s="33"/>
+      <c r="AMI57" s="33"/>
+      <c r="AMJ57" s="33"/>
+    </row>
+    <row r="58" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="52"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
       <c r="J58" s="66"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="67" t="s">
+      <c r="AMC58" s="33"/>
+      <c r="AMD58" s="33"/>
+      <c r="AME58" s="33"/>
+      <c r="AMF58" s="33"/>
+      <c r="AMG58" s="33"/>
+      <c r="AMH58" s="33"/>
+      <c r="AMI58" s="33"/>
+      <c r="AMJ58" s="33"/>
+    </row>
+    <row r="59" s="32" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="59"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="61"/>
+      <c r="AMC59" s="33"/>
+      <c r="AMD59" s="33"/>
+      <c r="AME59" s="33"/>
+      <c r="AMF59" s="33"/>
+      <c r="AMG59" s="33"/>
+      <c r="AMH59" s="33"/>
+      <c r="AMI59" s="33"/>
+      <c r="AMJ59" s="33"/>
+    </row>
+    <row r="60" s="22" customFormat="true" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+    </row>
+    <row r="61" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+      <c r="B61" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" s="22" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+      <c r="B66" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="69"/>
+      <c r="D66" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="70"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="67"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="21"/>
+    </row>
     <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2373,7 +2633,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="47">
     <mergeCell ref="A1:C6"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="E2:G2"/>
@@ -2405,18 +2665,22 @@
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="B46:I47"/>
-    <mergeCell ref="B51:E52"/>
-    <mergeCell ref="F51:I52"/>
-    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:I66"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
